--- a/last_project_plan.xlsx
+++ b/last_project_plan.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\CONNECT\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{DE9BE8B7-4BB0-42DA-BB6B-42AAEDA0715B}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{FB9B7C2F-5C6E-48C4-885D-47351C421E72}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9720" xr2:uid="{1AC5F95D-B91A-4C44-B303-AFFFF6E50C0B}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20736" windowHeight="9720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
     <author>Vertex42.com Templates</author>
   </authors>
   <commentList>
-    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{2C53E3F7-8878-42DB-9C3B-45B485DBE6A4}">
+    <comment ref="A11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -61,7 +61,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{06E95C49-58C2-494B-AC58-47ACC2D980F9}">
+    <comment ref="B11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -85,7 +85,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{D814C0EB-BA34-4BBA-B444-498226A5A03C}">
+    <comment ref="C11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -109,7 +109,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{0DDAC070-0F68-43C4-B971-3E8DD59FF338}">
+    <comment ref="D11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -133,7 +133,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{5117F8C0-6F95-450C-A75D-700ECE2F7024}">
+    <comment ref="E11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -256,7 +256,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F11" authorId="1" shapeId="0" xr:uid="{CCA08DBB-405E-4B7A-9BD6-85D584B6E145}">
+    <comment ref="F11" authorId="1" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -280,7 +280,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{0A28A064-6DF3-44FE-B55B-4CC1BB47A8AF}">
+    <comment ref="G11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -362,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{3B8795EB-6247-474B-AD3B-3E4F9EC58EED}">
+    <comment ref="H11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -386,7 +386,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{4C91D204-899C-419D-BA3C-85C20C1AB881}">
+    <comment ref="I11" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -1112,17 +1112,17 @@
     <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="164" fontId="15" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center" shrinkToFit="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="16" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 3" xfId="2" xr:uid="{021DE580-CAF5-4EC9-948D-170B4AC55A9C}"/>
+    <cellStyle name="Normal 3" xfId="2" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
     <cellStyle name="Percent" xfId="1" builtinId="5"/>
   </cellStyles>
   <dxfs count="1">
@@ -1445,11 +1445,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BD211296-3D86-44C5-A830-0CF798323370}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:BL54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E22" sqref="E22"/>
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="G38" sqref="G38"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1481,22 +1481,22 @@
       <c r="B6" s="56" t="s">
         <v>0</v>
       </c>
-      <c r="C6" s="60">
+      <c r="C6" s="59">
         <v>43407</v>
       </c>
-      <c r="D6" s="60"/>
-      <c r="E6" s="60"/>
+      <c r="D6" s="59"/>
+      <c r="E6" s="59"/>
     </row>
     <row r="7" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A7" s="55"/>
       <c r="B7" s="56" t="s">
         <v>1</v>
       </c>
-      <c r="C7" s="60" t="s">
+      <c r="C7" s="59" t="s">
         <v>2</v>
       </c>
-      <c r="D7" s="60"/>
-      <c r="E7" s="60"/>
+      <c r="D7" s="59"/>
+      <c r="E7" s="59"/>
     </row>
     <row r="11" spans="1:64" ht="51" x14ac:dyDescent="0.3">
       <c r="A11" s="5" t="s">
@@ -1795,7 +1795,7 @@
         <v>5</v>
       </c>
       <c r="J13" s="32">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="K13" s="3" t="str">
         <f>IF(AND(K$11&gt;=$E13,K$11&lt;=$F13),"X","")</f>
@@ -1870,17 +1870,17 @@
       <c r="BK13" s="3"/>
       <c r="BL13" s="3"/>
     </row>
-    <row r="14" spans="1:64" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A14" s="24" t="s">
         <v>17</v>
       </c>
       <c r="B14" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="C14" s="59" t="s">
+      <c r="C14" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D14" s="59"/>
+      <c r="D14" s="60"/>
       <c r="E14" s="28">
         <v>43170</v>
       </c>
@@ -1971,10 +1971,10 @@
       <c r="B15" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C15" s="59" t="s">
+      <c r="C15" s="60" t="s">
         <v>79</v>
       </c>
-      <c r="D15" s="59"/>
+      <c r="D15" s="60"/>
       <c r="E15" s="28">
         <v>43170</v>
       </c>
@@ -2065,10 +2065,10 @@
       <c r="B16" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C16" s="59" t="s">
+      <c r="C16" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="59"/>
+      <c r="D16" s="60"/>
       <c r="E16" s="28">
         <v>43174</v>
       </c>
@@ -2330,10 +2330,10 @@
       <c r="B19" s="33" t="s">
         <v>58</v>
       </c>
-      <c r="C19" s="59" t="s">
+      <c r="C19" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D19" s="59"/>
+      <c r="D19" s="60"/>
       <c r="E19" s="28">
         <v>43170</v>
       </c>
@@ -2418,10 +2418,10 @@
       <c r="B20" s="33" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="59" t="s">
+      <c r="C20" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D20" s="59"/>
+      <c r="D20" s="60"/>
       <c r="E20" s="28">
         <v>43174</v>
       </c>
@@ -2588,7 +2588,7 @@
       <c r="BK21" s="3"/>
       <c r="BL21" s="3"/>
     </row>
-    <row r="22" spans="1:64" ht="27.6" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:64" x14ac:dyDescent="0.3">
       <c r="A22" s="24" t="str">
         <f>IF(ISERROR(VALUE(SUBSTITUTE(prevWBS,".",""))),"0.1",IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",1))),prevWBS&amp;".1",LEFT(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1)))&amp;IF(ISERROR(FIND("`",SUBSTITUTE(prevWBS,".","`",2))),VALUE(RIGHT(prevWBS,LEN(prevWBS)-FIND("`",SUBSTITUTE(prevWBS,".","`",1))))+1,VALUE(MID(prevWBS,FIND("`",SUBSTITUTE(prevWBS,".","`",1))+1,(FIND("`",SUBSTITUTE(prevWBS,".","`",2))-FIND("`",SUBSTITUTE(prevWBS,".","`",1))-1)))+1)))</f>
         <v>2.1</v>
@@ -2605,7 +2605,7 @@
         <v>35</v>
       </c>
       <c r="G22" s="30">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="H22" s="31">
         <v>1</v>
@@ -2614,7 +2614,7 @@
         <v>6</v>
       </c>
       <c r="J22" s="32">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="K22" s="3"/>
       <c r="L22" s="3"/>
@@ -2962,7 +2962,7 @@
         <v>7</v>
       </c>
       <c r="J26" s="32">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="K26" s="3"/>
       <c r="L26" s="3"/>
@@ -3112,10 +3112,10 @@
       <c r="B28" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C28" s="59" t="s">
+      <c r="C28" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D28" s="59"/>
+      <c r="D28" s="60"/>
       <c r="E28" s="28" t="s">
         <v>37</v>
       </c>
@@ -3196,10 +3196,10 @@
       <c r="B29" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C29" s="59" t="s">
+      <c r="C29" s="60" t="s">
         <v>27</v>
       </c>
-      <c r="D29" s="59"/>
+      <c r="D29" s="60"/>
       <c r="E29" s="28" t="s">
         <v>49</v>
       </c>
@@ -3378,7 +3378,7 @@
         <v>7</v>
       </c>
       <c r="J31" s="32">
-        <v>20</v>
+        <v>8</v>
       </c>
       <c r="K31" s="3"/>
       <c r="L31" s="3" t="str">
@@ -3457,10 +3457,10 @@
       <c r="B32" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="59" t="s">
+      <c r="C32" s="60" t="s">
         <v>19</v>
       </c>
-      <c r="D32" s="59"/>
+      <c r="D32" s="60"/>
       <c r="E32" s="28">
         <v>43104</v>
       </c>
@@ -3551,10 +3551,10 @@
       <c r="B33" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C33" s="59" t="s">
+      <c r="C33" s="60" t="s">
         <v>25</v>
       </c>
-      <c r="D33" s="59"/>
+      <c r="D33" s="60"/>
       <c r="E33" s="28">
         <v>43135</v>
       </c>
@@ -3565,7 +3565,7 @@
         <v>3</v>
       </c>
       <c r="H33" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I33" s="32">
         <v>2</v>
@@ -3645,10 +3645,10 @@
       <c r="B34" s="37" t="s">
         <v>41</v>
       </c>
-      <c r="C34" s="59" t="s">
+      <c r="C34" s="60" t="s">
         <v>76</v>
       </c>
-      <c r="D34" s="59"/>
+      <c r="D34" s="60"/>
       <c r="E34" s="28">
         <v>43224</v>
       </c>
@@ -3659,7 +3659,7 @@
         <v>3</v>
       </c>
       <c r="H34" s="31">
-        <v>0.5</v>
+        <v>1</v>
       </c>
       <c r="I34" s="32">
         <v>2</v>
@@ -3745,13 +3745,13 @@
         <v>4</v>
       </c>
       <c r="H35" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I35" s="32">
         <v>3</v>
       </c>
       <c r="J35" s="32">
-        <v>20</v>
+        <v>3</v>
       </c>
       <c r="K35" s="3"/>
       <c r="L35" s="3"/>
@@ -3835,7 +3835,7 @@
         <v>3</v>
       </c>
       <c r="H36" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I36" s="32">
         <v>2</v>
@@ -3909,10 +3909,10 @@
       <c r="B37" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C37" s="59" t="s">
+      <c r="C37" s="60" t="s">
         <v>29</v>
       </c>
-      <c r="D37" s="59"/>
+      <c r="D37" s="60"/>
       <c r="E37" s="28">
         <v>43203</v>
       </c>
@@ -3923,7 +3923,7 @@
         <v>1</v>
       </c>
       <c r="H37" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I37" s="32">
         <v>1</v>
@@ -4015,7 +4015,7 @@
         <v>1</v>
       </c>
       <c r="H38" s="31">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I38" s="32">
         <v>1</v>
@@ -4195,7 +4195,7 @@
         <v>7</v>
       </c>
       <c r="J40" s="32">
-        <v>13</v>
+        <v>5</v>
       </c>
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
@@ -4265,10 +4265,10 @@
       <c r="B41" s="37" t="s">
         <v>58</v>
       </c>
-      <c r="C41" s="59" t="s">
+      <c r="C41" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="D41" s="59"/>
+      <c r="D41" s="60"/>
       <c r="E41" s="28">
         <v>43206</v>
       </c>
@@ -4349,10 +4349,10 @@
       <c r="B42" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C42" s="59" t="s">
+      <c r="C42" s="60" t="s">
         <v>22</v>
       </c>
-      <c r="D42" s="59"/>
+      <c r="D42" s="60"/>
       <c r="E42" s="28">
         <v>43211</v>
       </c>
@@ -4535,7 +4535,7 @@
         <v>6</v>
       </c>
       <c r="J44" s="43">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="K44" s="3"/>
       <c r="L44" s="3"/>
@@ -4601,10 +4601,10 @@
       <c r="B45" s="37" t="s">
         <v>18</v>
       </c>
-      <c r="C45" s="59" t="s">
+      <c r="C45" s="60" t="s">
         <v>31</v>
       </c>
-      <c r="D45" s="59"/>
+      <c r="D45" s="60"/>
       <c r="E45" s="28">
         <v>43213</v>
       </c>
@@ -4685,10 +4685,10 @@
       <c r="B46" s="37" t="s">
         <v>82</v>
       </c>
-      <c r="C46" s="59" t="s">
+      <c r="C46" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="D46" s="59"/>
+      <c r="D46" s="60"/>
       <c r="E46" s="28">
         <v>43215</v>
       </c>
@@ -5358,12 +5358,13 @@
     </row>
   </sheetData>
   <mergeCells count="25">
-    <mergeCell ref="C17:D17"/>
-    <mergeCell ref="C6:E6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="C14:D14"/>
-    <mergeCell ref="C15:D15"/>
-    <mergeCell ref="C16:D16"/>
+    <mergeCell ref="C44:D44"/>
+    <mergeCell ref="C45:D45"/>
+    <mergeCell ref="C46:D46"/>
+    <mergeCell ref="C37:D37"/>
+    <mergeCell ref="C41:D41"/>
+    <mergeCell ref="C42:D42"/>
+    <mergeCell ref="C43:D43"/>
     <mergeCell ref="C36:D36"/>
     <mergeCell ref="C18:D18"/>
     <mergeCell ref="C19:D19"/>
@@ -5376,13 +5377,12 @@
     <mergeCell ref="C33:D33"/>
     <mergeCell ref="C34:D34"/>
     <mergeCell ref="C35:D35"/>
-    <mergeCell ref="C44:D44"/>
-    <mergeCell ref="C45:D45"/>
-    <mergeCell ref="C46:D46"/>
-    <mergeCell ref="C37:D37"/>
-    <mergeCell ref="C41:D41"/>
-    <mergeCell ref="C42:D42"/>
-    <mergeCell ref="C43:D43"/>
+    <mergeCell ref="C17:D17"/>
+    <mergeCell ref="C6:E6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="C14:D14"/>
+    <mergeCell ref="C15:D15"/>
+    <mergeCell ref="C16:D16"/>
   </mergeCells>
   <conditionalFormatting sqref="H48:H53 H12:H44">
     <cfRule type="dataBar" priority="3">
